--- a/biology/Médecine/Pandémie_de_Covid-19_en_Auvergne-Rhône-Alpes/Pandémie_de_Covid-19_en_Auvergne-Rhône-Alpes.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_en_Auvergne-Rhône-Alpes/Pandémie_de_Covid-19_en_Auvergne-Rhône-Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Auvergne-Rh%C3%B4ne-Alpes</t>
+          <t>Pandémie_de_Covid-19_en_Auvergne-Rhône-Alpes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la situation en ce qui concerne la pandémie de maladie à coronavirus de 2019-2020 (COVID-19) en Auvergne-Rhône-Alpes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Auvergne-Rh%C3%B4ne-Alpes</t>
+          <t>Pandémie_de_Covid-19_en_Auvergne-Rhône-Alpes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cas
-Hospitalisations
-Décès
-Réanimations
-Statistiques par départements</t>
+          <t>Réanimations</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -527,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Auvergne-Rh%C3%B4ne-Alpes</t>
+          <t>Pandémie_de_Covid-19_en_Auvergne-Rhône-Alpes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Couvre-feu
-Les métropoles de Lyon, de Grenoble et de Saint-Étienne font partie des territoires français soumis au couvre-feu décrété par le gouvernement à compter du 17 octobre 2020.
+          <t>Couvre-feu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les métropoles de Lyon, de Grenoble et de Saint-Étienne font partie des territoires français soumis au couvre-feu décrété par le gouvernement à compter du 17 octobre 2020.
 </t>
         </is>
       </c>
